--- a/build/com/qtpselenium/xls/Result.xlsx
+++ b/build/com/qtpselenium/xls/Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="16">
   <si>
     <t>Script_name</t>
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>login_10E</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Patient_lookup</t>
+  </si>
+  <si>
+    <t>new_Patient</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>new_Insurance</t>
+  </si>
+  <si>
+    <t>new_Pharma</t>
+  </si>
+  <si>
+    <t>new_Attorney</t>
+  </si>
+  <si>
+    <t>alerts</t>
+  </si>
+  <si>
+    <t>additional_information</t>
+  </si>
+  <si>
+    <t>create_Appointment</t>
+  </si>
+  <si>
+    <t>create_employer</t>
+  </si>
+  <si>
+    <t>Guarantors</t>
+  </si>
+  <si>
+    <t>create_CaseManager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,16 +433,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.14453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -411,48 +454,76 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
